--- a/forms/parser/workbook.xlsx
+++ b/forms/parser/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM(A1:C2)</f>
+        <f>SUM($A$1:B1)</f>
         <v>0</v>
       </c>
     </row>

--- a/forms/parser/workbook.xlsx
+++ b/forms/parser/workbook.xlsx
@@ -348,7 +348,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <f>SUM($A$1:B1)</f>
+        <f>SUM(A1:C2)</f>
         <v>0</v>
       </c>
     </row>
